--- a/data/two paired group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
+++ b/data/two paired group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
@@ -3470,7 +3470,7 @@
     <t>KnownorUnknown</t>
   </si>
   <si>
-    <t>sampleID</t>
+    <t>subjectID</t>
   </si>
 </sst>
 </file>
@@ -3696,6 +3696,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3731,6 +3748,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3886,7 +3920,7 @@
   <dimension ref="A1:Z598"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
